--- a/services/excel/COURSES INFORMATIONS.xlsx
+++ b/services/excel/COURSES INFORMATIONS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F691A87-2208-4408-8718-8B9DEA6BC112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7752"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>logic</t>
   </si>
@@ -174,28 +175,76 @@
     <t>IS11</t>
   </si>
   <si>
-    <t>CS22</t>
-  </si>
-  <si>
-    <t>IS22</t>
-  </si>
-  <si>
-    <t>IT22</t>
-  </si>
-  <si>
-    <t>CS33</t>
-  </si>
-  <si>
-    <t>IS33</t>
-  </si>
-  <si>
-    <t>CS44</t>
+    <t>IS112</t>
+  </si>
+  <si>
+    <t>IT112</t>
+  </si>
+  <si>
+    <t>IS113</t>
+  </si>
+  <si>
+    <t>IS114</t>
+  </si>
+  <si>
+    <t>CS2211</t>
+  </si>
+  <si>
+    <t>CS225</t>
+  </si>
+  <si>
+    <t>CS226</t>
+  </si>
+  <si>
+    <t>IS227</t>
+  </si>
+  <si>
+    <t>IT229</t>
+  </si>
+  <si>
+    <t>IS226</t>
+  </si>
+  <si>
+    <t>CS334</t>
+  </si>
+  <si>
+    <t>CS333</t>
+  </si>
+  <si>
+    <t>IS331</t>
+  </si>
+  <si>
+    <t>IS2223</t>
+  </si>
+  <si>
+    <t>CS338</t>
+  </si>
+  <si>
+    <t>IS3323</t>
+  </si>
+  <si>
+    <t>IS3342</t>
+  </si>
+  <si>
+    <t>IS3343</t>
+  </si>
+  <si>
+    <t>IS228</t>
+  </si>
+  <si>
+    <t>CS336</t>
+  </si>
+  <si>
+    <t>CS445</t>
+  </si>
+  <si>
+    <t>CS4411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,6 +285,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -284,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,9 +369,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,6 +421,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,16 +613,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -553,7 +639,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -570,7 +656,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -587,9 +673,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -604,9 +690,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -621,9 +707,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -638,9 +724,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -655,9 +741,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -672,9 +758,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -689,9 +775,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -706,9 +792,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -723,9 +809,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -740,9 +826,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -757,9 +843,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -774,9 +860,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -791,9 +877,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -808,9 +894,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -825,9 +911,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -842,9 +928,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -859,9 +945,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -876,9 +962,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -893,9 +979,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -910,9 +996,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -927,9 +1013,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
@@ -944,9 +1030,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -961,9 +1047,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -978,9 +1064,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -1001,24 +1087,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
